--- a/teszt.xlsx
+++ b/teszt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>elso</t>
   </si>
@@ -49,6 +49,33 @@
   </si>
   <si>
     <t>yolo</t>
+  </si>
+  <si>
+    <t>a b c d</t>
+  </si>
+  <si>
+    <t>bde</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 123  45 58</t>
+  </si>
+  <si>
+    <t>a l o  h a</t>
+  </si>
+  <si>
+    <t>a2sdaf8</t>
+  </si>
+  <si>
+    <t>asdafaq</t>
+  </si>
+  <si>
+    <t>10s24</t>
+  </si>
+  <si>
+    <t>abscd</t>
+  </si>
+  <si>
+    <t>masodik</t>
   </si>
 </sst>
 </file>
@@ -387,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +461,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -450,8 +477,8 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>1024</v>
+      <c r="D4" t="s">
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -472,6 +499,62 @@
       </c>
       <c r="E5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
